--- a/ProductBacklogToonTank.xlsx
+++ b/ProductBacklogToonTank.xlsx
@@ -121,30 +121,15 @@
     <t>1: Completed environment                                           2: No light bleeding                                                        3: No softlocks</t>
   </si>
   <si>
-    <t>have a base game to build off of</t>
-  </si>
-  <si>
-    <t>create a new map design (PW)</t>
-  </si>
-  <si>
     <t>Scoring system (SM)</t>
   </si>
   <si>
-    <t>complete base game (everyone)</t>
-  </si>
-  <si>
     <t>Secondary fire (AQ)</t>
   </si>
   <si>
     <t>should have</t>
   </si>
   <si>
-    <t>set alternative fire mode to a flamethrower</t>
-  </si>
-  <si>
-    <t>scoreboard that tracks kills and accuracy</t>
-  </si>
-  <si>
     <t xml:space="preserve">1:AI seeks out the player                                                  2:AI successfully kills player                                                  3: player should be able to kill minotaur   </t>
   </si>
   <si>
@@ -158,6 +143,21 @@
   </si>
   <si>
     <t>Minotaur Boss (KL)</t>
+  </si>
+  <si>
+    <t>Create a new map design (PW)</t>
+  </si>
+  <si>
+    <t>Have a base game to build off of</t>
+  </si>
+  <si>
+    <t>Scoreboard that tracks kills and accuracy and displays on screen</t>
+  </si>
+  <si>
+    <t>Set alternative fire mode to a flamethrower</t>
+  </si>
+  <si>
+    <t>Complete base game (everyone)</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -816,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" s="17">
         <v>10</v>
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -844,19 +844,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="17">
         <v>5</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -872,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>12</v>
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -900,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>8</v>
@@ -928,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="17">
         <v>5</v>
@@ -940,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
